--- a/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Turkish_200_Word_Talk_Time1_Join_Test.xlsx
+++ b/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Turkish_200_Word_Talk_Time1_Join_Test.xlsx
@@ -25,13 +25,13 @@
     <t>end_time</t>
   </si>
   <si>
-    <t>J3lK1h2j7Lo,dFdcNQFG81I,Isab2NO9jlk,dFdcNQFG81I,JvsqNlgYDFc,dFdcNQFG81I,iMWJYbnaaA8,dFdcNQFG81I,se6d6ZZWKlM,dFdcNQFG81I,wjXiSsSfthA,dFdcNQFG81I,P_KbNZi5uUo,dFdcNQFG81I,m6i3bQjjMj8&amp;,dFdcNQFG81I,m4wAWTKjN7c,dFdcNQFG81I,Isab2NO9jlk,dFdcNQFG81I,pLifvTWuvHg,dFdcNQFG81I,pLifvTWuvHg,dFdcNQFG81I,7hf6KFdMcC0,dFdcNQFG81I,MhHCQ_cb3T8,dFdcNQFG81I,LVnzp2y1jgs,dFdcNQFG81I,El2sv50Jzyk,dFdcNQFG81I,V01QdmJS_fI,dFdcNQFG81I,5B0XYZjzivw,dFdcNQFG81I,hFFskmCQkuM,dFdcNQFG81I,Yuu5VhJBIUg,dFdcNQFG81I,Yr2ZLfWT0i8,dFdcNQFG81I,C0YofWzdFmM,dFdcNQFG81I,75nhaAS0Vpo,dFdcNQFG81I,m4wAWTKjN7c,dFdcNQFG81I,I1lsg22S2mw,dFdcNQFG81I,UfpByy3jOCY,dFdcNQFG81I,F6AWockt0Gg,dFdcNQFG81I,mjRrXuiDENk,dFdcNQFG81I,kJHnaKS0Igg,dFdcNQFG81I,8tm4tpBBAdM,dFdcNQFG81I,CsQUWUeAiSY,dFdcNQFG81I,nbyZeB6ovkY,dFdcNQFG81I,N8_SglatiMQ,dFdcNQFG81I,dWIJFBbJSn4,dFdcNQFG81I,KSs8rK9tO04,dFdcNQFG81I,3Ar9cUeEz0c,dFdcNQFG81I,spJUNajXNyQ,dFdcNQFG81I,ZmqSH5kNB7k,dFdcNQFG81I,En1VFf1cD50,dFdcNQFG81I,wdHldaeg_VE,dFdcNQFG81I,YXMgrpbXFTM,dFdcNQFG81I,r_9ngjGh2Ks,dFdcNQFG81I,8hbHNROHIvA,dFdcNQFG81I,_vqr6KQunWY,dFdcNQFG81I,EzXdfunk4fE,dFdcNQFG81I,gFRO_rePrwM,dFdcNQFG81I,UDySRbaEssc,dFdcNQFG81I,F6AWockt0Gg,dFdcNQFG81I,f8yK3xnWEbA,dFdcNQFG81I,8hbHNROHIvA,dFdcNQFG81I,_vqr6KQunWY,dFdcNQFG81I,EzXdfunk4fE,dFdcNQFG81I,gFRO_rePrwM,dFdcNQFG81I,gUrC6ydtQ2c,dFdcNQFG81I,6_VFindbcQY,dFdcNQFG81I,f69FZ66NvGU,dFdcNQFG81I,rAkxQk_SimU,dFdcNQFG81I,cPoQ27hCNOU,dFdcNQFG81I,tVTGaaKayOE,dFdcNQFG81I,edGx4W9_vhg,dFdcNQFG81I,m4wAWTKjN7c,dFdcNQFG81I,I1lsg22S2mw,dFdcNQFG81I,UfpByy3jOCY,dFdcNQFG81I,F6AWockt0Gg,dFdcNQFG81I,Ba_ffkYzPds,dFdcNQFG81I,kJHnaKS0Igg,dFdcNQFG81I,ncy57YkTtdU,dFdcNQFG81I,d9tZZGbLQMU,dFdcNQFG81I,8tm4tpBBAdM,dFdcNQFG81I,nbyZeB6ovkY,dFdcNQFG81I,dWIJFBbJSn4,dFdcNQFG81I,EvSVykyXNGE,dFdcNQFG81I,59O26q6nq2k,dFdcNQFG81I,DWqNvmTtN8c,dFdcNQFG81I,MhHCQ_cb3T8,dFdcNQFG81I,wdHldaeg_VE,dFdcNQFG81I,aqQ7IUho9pA,dFdcNQFG81I,F6AWockt0Gg,dFdcNQFG81I,K8fgPqaaJrA,dFdcNQFG81I,gFRO_rePrwM,dFdcNQFG81I,CSr36NrNoWM,dFdcNQFG81I,WsbuisT5H90,dFdcNQFG81I,edGx4W9_vhg,dFdcNQFG81I,tIlamQpNpXg,dFdcNQFG81I,F6AWockt0Gg,dFdcNQFG81I,xIjA_1JQF8I,dFdcNQFG81I,ncy57YkTtdU,dFdcNQFG81I,dXqn8xhYSr8,dFdcNQFG81I,o4LyycKz0wg,dFdcNQFG81I,HhLIORa1NKg,dFdcNQFG81I,7m50hJglZs8,dFdcNQFG81I,gX77n13Qj0o,dFdcNQFG81I,gX77n13Qj0o,dFdcNQFG81I</t>
-  </si>
-  <si>
-    <t>2551,0,1773,0,7791,0,550,0,474,0,4314,0,6380,0,411,0,255,0,1773,0,8049,0,8049,0,2724,0,7069,0,1047,0,3851,0,1896,0,475,0,5708,0,446,0,215,0,446,0,681,0,255,0,354,0,4533,0,177,0,32,0,56,0,106,0,552,0,526,0,76,0,597,0,1442,0,216,0,113,0,790,0,143,0,535,0,2588,0,623,0,535,0,435,0,380,0,265,0,2980,0,177,0,414,0,535,0,435,0,380,0,265,0,3120,0,1789,0,386,0,5516,0,559,0,82,0,1775,0,255,0,354,0,4533,0,177,0,6703,0,56,0,3153,0,888,0,106,0,526,0,597,0,4022,0,3689,0,430,0,4775,0,535,0,131,0,177,0,3905,0,265,0,6047,0,512,0,1775,0,1686,0,177,0,3350,0,3153,0,706,0,281,0,4290,0,140,0,65,0,65,0</t>
-  </si>
-  <si>
-    <t>2553,3,1775,3,7792,2,551,2,475,2,4315,2,6382,3,413,3,257,3,1775,3,8051,3,8051,3,2726,3,7071,3,1048,2,3853,3,1898,3,476,2,5710,3,451,6,217,3,448,3,683,3,257,3,355,2,4534,2,178,2,33,2,58,3,108,3,553,2,528,3,78,3,598,2,1443,2,218,3,115,3,792,3,145,3,537,3,2590,3,627,5,536,2,436,2,381,2,266,2,2981,2,178,2,416,3,536,2,436,2,381,2,266,2,3122,3,1791,3,388,3,5518,3,562,4,83,2,1777,3,257,3,355,2,4534,2,178,2,6705,3,58,3,3154,2,889,2,108,3,528,3,598,2,4023,2,3691,3,432,3,4777,3,537,3,134,4,178,2,3907,3,266,2,6050,4,514,3,1777,3,1688,3,178,2,3352,3,3154,2,708,3,283,3,4292,3,141,2,68,4,70,6</t>
+    <t>J3lK1h2j7Lo,bj1JRuyYeco,Isab2NO9jlk,bj1JRuyYeco,JvsqNlgYDFc,bj1JRuyYeco,iMWJYbnaaA8,bj1JRuyYeco,se6d6ZZWKlM,bj1JRuyYeco,wjXiSsSfthA,bj1JRuyYeco,P_KbNZi5uUo,bj1JRuyYeco,m6i3bQjjMj8&amp;,bj1JRuyYeco,m4wAWTKjN7c,bj1JRuyYeco,Isab2NO9jlk,bj1JRuyYeco,pLifvTWuvHg,bj1JRuyYeco,pLifvTWuvHg,bj1JRuyYeco,7hf6KFdMcC0,bj1JRuyYeco,MhHCQ_cb3T8,bj1JRuyYeco,LVnzp2y1jgs,bj1JRuyYeco,El2sv50Jzyk,bj1JRuyYeco,V01QdmJS_fI,bj1JRuyYeco,5B0XYZjzivw,bj1JRuyYeco,hFFskmCQkuM,bj1JRuyYeco,Yuu5VhJBIUg,bj1JRuyYeco,Yr2ZLfWT0i8,bj1JRuyYeco,C0YofWzdFmM,bj1JRuyYeco,75nhaAS0Vpo,bj1JRuyYeco,m4wAWTKjN7c,bj1JRuyYeco,I1lsg22S2mw,bj1JRuyYeco,UfpByy3jOCY,bj1JRuyYeco,F6AWockt0Gg,bj1JRuyYeco,mjRrXuiDENk,bj1JRuyYeco,kJHnaKS0Igg,bj1JRuyYeco,8tm4tpBBAdM,bj1JRuyYeco,CsQUWUeAiSY,bj1JRuyYeco,nbyZeB6ovkY,bj1JRuyYeco,N8_SglatiMQ,bj1JRuyYeco,dWIJFBbJSn4,bj1JRuyYeco,KSs8rK9tO04,bj1JRuyYeco,3Ar9cUeEz0c,bj1JRuyYeco,spJUNajXNyQ,bj1JRuyYeco,ZmqSH5kNB7k,bj1JRuyYeco,En1VFf1cD50,bj1JRuyYeco,wdHldaeg_VE,bj1JRuyYeco,YXMgrpbXFTM,bj1JRuyYeco,r_9ngjGh2Ks,bj1JRuyYeco</t>
+  </si>
+  <si>
+    <t>2551,0,1773,0,7791,0,550,0,474,0,4314,0,6380,0,411,0,255,0,1773,0,8049,0,8049,0,2724,0,7069,0,1047,0,3851,0,1896,0,475,0,5708,0,446,0,215,0,446,0,681,0,255,0,354,0,4533,0,177,0,32,0,56,0,106,0,552,0,526,0,76,0,597,0,1442,0,216,0,113,0,790,0,143,0,535,0,2588,0,623,0</t>
+  </si>
+  <si>
+    <t>2553,3,1775,3,7792,2,551,2,475,2,4315,2,6382,3,413,3,257,3,1775,3,8051,3,8051,3,2726,3,7071,3,1048,2,3853,3,1898,3,476,2,5710,3,451,6,217,3,448,3,683,3,257,3,355,2,4534,2,178,2,33,2,58,3,108,3,553,2,528,3,78,3,598,2,1443,2,218,3,115,3,792,3,145,3,537,3,2590,3,627,5</t>
   </si>
 </sst>
 </file>
